--- a/Experiment Results.xlsx
+++ b/Experiment Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idhan\OneDrive - Deakin University\Idhant\Deakin University\2021\2021 T1\SIT723\Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954C5A2A-7072-47DC-BF42-D52793ED6AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A501A8-CDC1-490D-8BD2-EB53642501C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3336" yWindow="3564" windowWidth="16956" windowHeight="9396" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3336" yWindow="3564" windowWidth="16956" windowHeight="9396" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment-1.1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
   <si>
     <t>Task-1</t>
   </si>
@@ -146,7 +146,64 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="47">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1603,85 +1660,85 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{207AE447-54C3-426B-97EA-614574EE39F6}" name="Table2" displayName="Table2" ref="B2:L12" totalsRowShown="0">
   <autoFilter ref="B2:L12" xr:uid="{299633F3-9759-4DFC-A21B-E3E7202CF49D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{4E1C204B-CF9A-4FCF-9956-898CFB48DFDE}" name="Task-1" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{E0AF6DC6-EABB-4D09-8546-E706BCC99D9D}" name="Task-2" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{70E05666-ABDE-4C46-A101-EEB9AF39B74B}" name="Task-3" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{B307AF3F-679B-4E89-893E-F2340DC21291}" name="Task-4" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{FB9A6D65-DC18-4C30-B71F-43D2ED257452}" name="Task-5" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{BE9CC84F-41AF-4392-A8C1-EB7D0BE810FF}" name="Task-6" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{68EECA8B-D39F-4DBE-9FD8-B3FE610D4A09}" name="Task-7" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{0708117F-E482-4A3E-B7EC-108371D227D7}" name="Task-8" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{971B460B-BFEA-4583-A24D-F39B88648DEB}" name="Task-9" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{80938248-B403-4C58-A65C-107FF19DC627}" name="Task-10" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{6958C245-EDE2-4A51-A1DB-5A5B36B170A1}" name="Total-time" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{4E1C204B-CF9A-4FCF-9956-898CFB48DFDE}" name="Task-1" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{E0AF6DC6-EABB-4D09-8546-E706BCC99D9D}" name="Task-2" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{70E05666-ABDE-4C46-A101-EEB9AF39B74B}" name="Task-3" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{B307AF3F-679B-4E89-893E-F2340DC21291}" name="Task-4" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{FB9A6D65-DC18-4C30-B71F-43D2ED257452}" name="Task-5" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{BE9CC84F-41AF-4392-A8C1-EB7D0BE810FF}" name="Task-6" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{68EECA8B-D39F-4DBE-9FD8-B3FE610D4A09}" name="Task-7" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{0708117F-E482-4A3E-B7EC-108371D227D7}" name="Task-8" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{971B460B-BFEA-4583-A24D-F39B88648DEB}" name="Task-9" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{80938248-B403-4C58-A65C-107FF19DC627}" name="Task-10" dataDxfId="37"/>
+    <tableColumn id="16" xr3:uid="{6958C245-EDE2-4A51-A1DB-5A5B36B170A1}" name="Total-time" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{628B9F19-DD09-40D5-97FB-B999C6EC5E89}" name="Table26" displayName="Table26" ref="B2:Q12" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{628B9F19-DD09-40D5-97FB-B999C6EC5E89}" name="Table26" displayName="Table26" ref="B2:Q12" totalsRowShown="0" dataDxfId="19">
   <autoFilter ref="B2:Q12" xr:uid="{0E89B7DE-64C9-414E-8A0C-9F393A32812B}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{49D74BF2-EA4B-4484-BEF7-0C8B3771DEB8}" name="Task-1" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{857E62DB-2191-4BA2-A363-779D2B5813FB}" name="Task-2" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{DE0DFB78-41A1-455C-85E5-2A9CB5CF41A3}" name="Task-3" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{355B8AF2-BFBB-4778-A64E-DA7E8C1F18B3}" name="Task-4" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{1F7DFD0C-36CE-4E89-8FD1-99D7EFAF7C4A}" name="Task-5" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{AF1E8DAD-C46E-44FA-98E9-9CB92A241981}" name="Task-6" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{0A2B0D47-23EC-44E3-AA9E-7603FEAD5C10}" name="Task-7" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{773DD5CF-A69C-4BA8-A54D-527EA97026D1}" name="Task-8" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{416BCCB6-F981-460F-B682-E82A5AD1799B}" name="Task-9" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{FDB58791-CED8-4DA4-9E4F-6A549065BEFE}" name="Task-10" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{B2FF2E68-678F-4D87-B791-9806C6B3E094}" name="Task-11" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{0879A415-1918-432A-9E2A-79E3F193AE8C}" name="Task-12" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{1679A36E-3AAF-4AB3-ADA2-B57D37E76D03}" name="Task-13" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{599892F7-5CB3-410A-B2E7-6CBB5B84009E}" name="Task-14" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{2A21BFDD-D468-4B78-BF8B-E939B7D04F27}" name="Task-15" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{FC737061-2B25-4088-87F2-4583EDED2FB4}" name="Total-Time" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{49D74BF2-EA4B-4484-BEF7-0C8B3771DEB8}" name="Task-1" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{857E62DB-2191-4BA2-A363-779D2B5813FB}" name="Task-2" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{DE0DFB78-41A1-455C-85E5-2A9CB5CF41A3}" name="Task-3" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{355B8AF2-BFBB-4778-A64E-DA7E8C1F18B3}" name="Task-4" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{1F7DFD0C-36CE-4E89-8FD1-99D7EFAF7C4A}" name="Task-5" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{AF1E8DAD-C46E-44FA-98E9-9CB92A241981}" name="Task-6" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{0A2B0D47-23EC-44E3-AA9E-7603FEAD5C10}" name="Task-7" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{773DD5CF-A69C-4BA8-A54D-527EA97026D1}" name="Task-8" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{416BCCB6-F981-460F-B682-E82A5AD1799B}" name="Task-9" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{FDB58791-CED8-4DA4-9E4F-6A549065BEFE}" name="Task-10" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{B2FF2E68-678F-4D87-B791-9806C6B3E094}" name="Task-11" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{0879A415-1918-432A-9E2A-79E3F193AE8C}" name="Task-12" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{1679A36E-3AAF-4AB3-ADA2-B57D37E76D03}" name="Task-13" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{599892F7-5CB3-410A-B2E7-6CBB5B84009E}" name="Task-14" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{2A21BFDD-D468-4B78-BF8B-E939B7D04F27}" name="Task-15" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{FC737061-2B25-4088-87F2-4583EDED2FB4}" name="Total-Time" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F2710F66-FE97-4590-BA7F-A093C9D57246}" name="Table27" displayName="Table27" ref="B2:G13" totalsRowShown="0">
-  <autoFilter ref="B2:G13" xr:uid="{EFCD82E7-DAFD-4321-9AA9-283F00F260CF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F2710F66-FE97-4590-BA7F-A093C9D57246}" name="Table27" displayName="Table27" ref="B2:G12" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="B2:G12" xr:uid="{EFCD82E7-DAFD-4321-9AA9-283F00F260CF}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BB260070-4F6E-4BFD-B0F8-57DB91FC5CB8}" name="Task-1"/>
-    <tableColumn id="2" xr3:uid="{3E95F07C-9C74-456D-B7BA-F2A4529394F2}" name="Task-2"/>
-    <tableColumn id="3" xr3:uid="{6F52E800-2CA7-4B2F-9F98-58254D263CDB}" name="Task-3"/>
-    <tableColumn id="4" xr3:uid="{0263F554-AA1E-4E1D-BED7-96730DDAA856}" name="Task-4"/>
-    <tableColumn id="5" xr3:uid="{013A5834-EC04-47F6-99EC-C27AE3B13ADD}" name="Task-5"/>
-    <tableColumn id="16" xr3:uid="{6833144D-1CCF-4370-B463-6F1466C85E21}" name="Total-Time"/>
+    <tableColumn id="1" xr3:uid="{BB260070-4F6E-4BFD-B0F8-57DB91FC5CB8}" name="Task-1" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{3E95F07C-9C74-456D-B7BA-F2A4529394F2}" name="Task-2" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{6F52E800-2CA7-4B2F-9F98-58254D263CDB}" name="Task-3" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{0263F554-AA1E-4E1D-BED7-96730DDAA856}" name="Task-4" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{013A5834-EC04-47F6-99EC-C27AE3B13ADD}" name="Task-5" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{6833144D-1CCF-4370-B463-6F1466C85E21}" name="Total-Time" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FCBDE88-7DE6-4454-AFB5-4A014E98DED8}" name="Table24" displayName="Table24" ref="B2:L13" totalsRowShown="0">
-  <autoFilter ref="B2:L13" xr:uid="{FFADE931-33B8-44F2-8601-C1018AA3B55B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FCBDE88-7DE6-4454-AFB5-4A014E98DED8}" name="Table24" displayName="Table24" ref="B2:L12" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="B2:L12" xr:uid="{FFADE931-33B8-44F2-8601-C1018AA3B55B}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{AA355A33-D6E4-4645-AA11-4EE95C6512EA}" name="Task-1"/>
-    <tableColumn id="2" xr3:uid="{BF567C49-F559-4E3C-A5D8-091A2D9B1821}" name="Task-2"/>
-    <tableColumn id="3" xr3:uid="{1CD14F8A-BA25-4FA1-A01A-8CFF2248567D}" name="Task-3"/>
-    <tableColumn id="4" xr3:uid="{99A7EE9E-DE19-4712-AF2F-6E7D7F962134}" name="Task-4"/>
-    <tableColumn id="5" xr3:uid="{54740996-1488-4847-8A71-226B99786F2A}" name="Task-5"/>
-    <tableColumn id="6" xr3:uid="{F7C18FF7-1FDE-4223-B773-7A518957A339}" name="Task-6"/>
-    <tableColumn id="7" xr3:uid="{6A98458D-AA6D-43FA-9819-599A299BD238}" name="Task-7"/>
-    <tableColumn id="8" xr3:uid="{98F146AF-30EA-4FBF-A817-DD77F658DD0D}" name="Task-8"/>
-    <tableColumn id="9" xr3:uid="{1CFDAE98-A152-44B0-B5B0-22DD9BBDE666}" name="Task-9"/>
-    <tableColumn id="10" xr3:uid="{8BB2A298-CD63-4363-991E-987439DE7F8A}" name="Task-10"/>
-    <tableColumn id="11" xr3:uid="{23E9FC56-B9BE-4AAD-9948-1B6DB52A153E}" name="Total-Time"/>
+    <tableColumn id="1" xr3:uid="{AA355A33-D6E4-4645-AA11-4EE95C6512EA}" name="Task-1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{BF567C49-F559-4E3C-A5D8-091A2D9B1821}" name="Task-2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{1CD14F8A-BA25-4FA1-A01A-8CFF2248567D}" name="Task-3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{99A7EE9E-DE19-4712-AF2F-6E7D7F962134}" name="Task-4" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{54740996-1488-4847-8A71-226B99786F2A}" name="Task-5" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{F7C18FF7-1FDE-4223-B773-7A518957A339}" name="Task-6" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{6A98458D-AA6D-43FA-9819-599A299BD238}" name="Task-7" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{98F146AF-30EA-4FBF-A817-DD77F658DD0D}" name="Task-8" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{1CFDAE98-A152-44B0-B5B0-22DD9BBDE666}" name="Task-9" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{8BB2A298-CD63-4363-991E-987439DE7F8A}" name="Task-10" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{23E9FC56-B9BE-4AAD-9948-1B6DB52A153E}" name="Total-Time" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C6C2D19F-6D2D-48B4-BD66-97EFFBC5ED84}" name="Table25" displayName="Table25" ref="B2:Q13" totalsRowShown="0">
-  <autoFilter ref="B2:Q13" xr:uid="{2C80C8EE-818C-4887-BFAE-4CEB4F0A31A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C6C2D19F-6D2D-48B4-BD66-97EFFBC5ED84}" name="Table25" displayName="Table25" ref="B2:Q12" totalsRowShown="0">
+  <autoFilter ref="B2:Q12" xr:uid="{2C80C8EE-818C-4887-BFAE-4CEB4F0A31A9}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{E723B6A7-5F30-4901-BEBB-B0BEF1D05BE9}" name="Task-1"/>
     <tableColumn id="2" xr3:uid="{C6F4233A-4EDB-4FBE-A229-F69E6825DE8A}" name="Task-2"/>
@@ -2712,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868CBFF4-5185-4CEB-815C-AECF8A22297D}">
   <dimension ref="A2:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3366,15 +3423,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6327F35-9837-49E8-80D3-424A88B54D81}">
-  <dimension ref="B2:G2"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3392,6 +3449,254 @@
       </c>
       <c r="G2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <f>AVERAGE(B3:B12)</f>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:G14" si="0">AVERAGE(C3:C12)</f>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20099999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20299999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20400000000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.004</v>
       </c>
     </row>
   </sheetData>
@@ -3405,15 +3710,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABE105A-55E6-4C49-9904-0C8E0806AF2F}">
-  <dimension ref="B2:L2"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3446,6 +3751,429 @@
       </c>
       <c r="L2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="L3" s="1">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="L5" s="1">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L6" s="1">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="L7" s="1">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="L9" s="1">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="L10" s="1">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="L11" s="1">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <f>AVERAGE(B3:B12)</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:L14" si="0">AVERAGE(C3:C12)</f>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69299999999999984</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69499999999999984</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70100000000000007</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70200000000000007</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70300000000000007</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9470000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3459,10 +4187,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89EA9B7-9A6C-4124-B111-7AF40EE6F681}">
-  <dimension ref="B2:Q2"/>
+  <dimension ref="B2:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3515,6 +4243,506 @@
       </c>
       <c r="Q2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1.22</v>
+      </c>
+      <c r="C4">
+        <v>1.22</v>
+      </c>
+      <c r="D4">
+        <v>1.23</v>
+      </c>
+      <c r="E4">
+        <v>1.23</v>
+      </c>
+      <c r="F4">
+        <v>1.23</v>
+      </c>
+      <c r="G4">
+        <v>1.23</v>
+      </c>
+      <c r="H4">
+        <v>1.23</v>
+      </c>
+      <c r="I4">
+        <v>1.23</v>
+      </c>
+      <c r="J4">
+        <v>1.24</v>
+      </c>
+      <c r="K4">
+        <v>1.24</v>
+      </c>
+      <c r="L4">
+        <v>1.24</v>
+      </c>
+      <c r="M4">
+        <v>1.24</v>
+      </c>
+      <c r="N4">
+        <v>1.25</v>
+      </c>
+      <c r="O4">
+        <v>1.25</v>
+      </c>
+      <c r="P4">
+        <v>1.25</v>
+      </c>
+      <c r="Q4">
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1.32</v>
+      </c>
+      <c r="C5">
+        <v>1.32</v>
+      </c>
+      <c r="D5">
+        <v>1.32</v>
+      </c>
+      <c r="E5">
+        <v>1.33</v>
+      </c>
+      <c r="F5">
+        <v>1.33</v>
+      </c>
+      <c r="G5">
+        <v>1.33</v>
+      </c>
+      <c r="H5">
+        <v>1.34</v>
+      </c>
+      <c r="I5">
+        <v>1.34</v>
+      </c>
+      <c r="J5">
+        <v>1.34</v>
+      </c>
+      <c r="K5">
+        <v>1.34</v>
+      </c>
+      <c r="L5">
+        <v>1.35</v>
+      </c>
+      <c r="M5">
+        <v>1.35</v>
+      </c>
+      <c r="N5">
+        <v>1.35</v>
+      </c>
+      <c r="O5">
+        <v>1.35</v>
+      </c>
+      <c r="P5">
+        <v>1.36</v>
+      </c>
+      <c r="Q5">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1.3</v>
+      </c>
+      <c r="C6">
+        <v>1.3</v>
+      </c>
+      <c r="D6">
+        <v>1.31</v>
+      </c>
+      <c r="E6">
+        <v>1.31</v>
+      </c>
+      <c r="F6">
+        <v>1.31</v>
+      </c>
+      <c r="G6">
+        <v>1.31</v>
+      </c>
+      <c r="H6">
+        <v>1.31</v>
+      </c>
+      <c r="I6">
+        <v>1.32</v>
+      </c>
+      <c r="J6">
+        <v>1.32</v>
+      </c>
+      <c r="K6">
+        <v>1.32</v>
+      </c>
+      <c r="L6">
+        <v>1.32</v>
+      </c>
+      <c r="M6">
+        <v>1.32</v>
+      </c>
+      <c r="N6">
+        <v>1.32</v>
+      </c>
+      <c r="O6">
+        <v>1.33</v>
+      </c>
+      <c r="P6">
+        <v>1.33</v>
+      </c>
+      <c r="Q6">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1.48</v>
+      </c>
+      <c r="C7">
+        <v>1.48</v>
+      </c>
+      <c r="D7">
+        <v>1.48</v>
+      </c>
+      <c r="E7">
+        <v>1.49</v>
+      </c>
+      <c r="F7">
+        <v>1.49</v>
+      </c>
+      <c r="G7">
+        <v>1.49</v>
+      </c>
+      <c r="H7">
+        <v>1.49</v>
+      </c>
+      <c r="I7">
+        <v>1.5</v>
+      </c>
+      <c r="J7">
+        <v>1.5</v>
+      </c>
+      <c r="K7">
+        <v>1.5</v>
+      </c>
+      <c r="L7">
+        <v>1.5</v>
+      </c>
+      <c r="M7">
+        <v>1.5</v>
+      </c>
+      <c r="N7">
+        <v>1.5</v>
+      </c>
+      <c r="O7">
+        <v>1.51</v>
+      </c>
+      <c r="P7">
+        <v>1.51</v>
+      </c>
+      <c r="Q7">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1.18</v>
+      </c>
+      <c r="C8">
+        <v>1.18</v>
+      </c>
+      <c r="D8">
+        <v>1.19</v>
+      </c>
+      <c r="E8">
+        <v>1.19</v>
+      </c>
+      <c r="F8">
+        <v>1.19</v>
+      </c>
+      <c r="G8">
+        <v>1.19</v>
+      </c>
+      <c r="H8">
+        <v>1.2</v>
+      </c>
+      <c r="I8">
+        <v>1.2</v>
+      </c>
+      <c r="J8">
+        <v>1.2</v>
+      </c>
+      <c r="K8">
+        <v>1.2</v>
+      </c>
+      <c r="L8">
+        <v>1.21</v>
+      </c>
+      <c r="M8">
+        <v>1.21</v>
+      </c>
+      <c r="N8">
+        <v>1.21</v>
+      </c>
+      <c r="O8">
+        <v>1.21</v>
+      </c>
+      <c r="P8">
+        <v>1.22</v>
+      </c>
+      <c r="Q8">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2.19</v>
+      </c>
+      <c r="C9">
+        <v>2.19</v>
+      </c>
+      <c r="D9">
+        <v>2.19</v>
+      </c>
+      <c r="E9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I9">
+        <v>2.21</v>
+      </c>
+      <c r="J9">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="L9">
+        <v>2.27</v>
+      </c>
+      <c r="M9">
+        <v>2.27</v>
+      </c>
+      <c r="N9">
+        <v>2.27</v>
+      </c>
+      <c r="O9">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="P9">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q9">
+        <v>33.43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1.38</v>
+      </c>
+      <c r="C10">
+        <v>1.38</v>
+      </c>
+      <c r="D10">
+        <v>1.38</v>
+      </c>
+      <c r="E10">
+        <v>1.39</v>
+      </c>
+      <c r="F10">
+        <v>1.39</v>
+      </c>
+      <c r="G10">
+        <v>1.39</v>
+      </c>
+      <c r="H10">
+        <v>1.39</v>
+      </c>
+      <c r="I10">
+        <v>1.4</v>
+      </c>
+      <c r="J10">
+        <v>1.4</v>
+      </c>
+      <c r="K10">
+        <v>1.4</v>
+      </c>
+      <c r="L10">
+        <v>1.4</v>
+      </c>
+      <c r="M10">
+        <v>1.4</v>
+      </c>
+      <c r="N10">
+        <v>1.4</v>
+      </c>
+      <c r="O10">
+        <v>1.41</v>
+      </c>
+      <c r="P10">
+        <v>1.41</v>
+      </c>
+      <c r="Q10">
+        <v>20.91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="O11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="P11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G12">
+        <v>1.17</v>
+      </c>
+      <c r="H12">
+        <v>1.17</v>
+      </c>
+      <c r="I12">
+        <v>1.17</v>
+      </c>
+      <c r="J12">
+        <v>1.17</v>
+      </c>
+      <c r="K12">
+        <v>1.17</v>
+      </c>
+      <c r="L12">
+        <v>1.18</v>
+      </c>
+      <c r="M12">
+        <v>1.18</v>
+      </c>
+      <c r="N12">
+        <v>1.18</v>
+      </c>
+      <c r="O12">
+        <v>1.18</v>
+      </c>
+      <c r="P12">
+        <v>1.18</v>
+      </c>
+      <c r="Q12">
+        <v>17.55</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment Results.xlsx
+++ b/Experiment Results.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idhan\OneDrive - Deakin University\Idhant\Deakin University\2021\2021 T1\SIT723\Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A501A8-CDC1-490D-8BD2-EB53642501C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FC6051-810E-4033-8CB8-6B3F6AC4198B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3336" yWindow="3564" windowWidth="16956" windowHeight="9396" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Experiment-1.1" sheetId="1" r:id="rId1"/>
-    <sheet name="Experiment-1.2" sheetId="4" r:id="rId2"/>
-    <sheet name="Experiment-1.3" sheetId="5" r:id="rId3"/>
-    <sheet name="Experiment-2.1" sheetId="2" r:id="rId4"/>
-    <sheet name="Experiment-2.2" sheetId="6" r:id="rId5"/>
-    <sheet name="Experiment-2.3" sheetId="7" r:id="rId6"/>
+    <sheet name="Experiment-1" sheetId="8" r:id="rId1"/>
+    <sheet name="Experiment-1.1" sheetId="1" r:id="rId2"/>
+    <sheet name="Experiment-1.2" sheetId="4" r:id="rId3"/>
+    <sheet name="Experiment-1.3" sheetId="5" r:id="rId4"/>
+    <sheet name="Experiment-2" sheetId="9" r:id="rId5"/>
+    <sheet name="Experiment-2.1" sheetId="2" r:id="rId6"/>
+    <sheet name="Experiment-2.2" sheetId="6" r:id="rId7"/>
+    <sheet name="Experiment-2.3" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
   <si>
     <t>Task-1</t>
   </si>
@@ -94,10 +96,34 @@
     <t>Total-time</t>
   </si>
   <si>
-    <t xml:space="preserve">Task-1 </t>
+    <t>Average</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Average time for task</t>
+  </si>
+  <si>
+    <t>Mean Global Runtime</t>
+  </si>
+  <si>
+    <t>Mean Local Runtime</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Tasks </t>
+  </si>
+  <si>
+    <t>Number of Robots</t>
+  </si>
+  <si>
+    <t>Ratio of Global Time Increase</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Ratio of Local Time Increase</t>
   </si>
 </sst>
 </file>
@@ -139,103 +165,344 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="98">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -302,6 +569,543 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Experiment-1'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Experiment-1'!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E407-48FB-9CB9-8543E0745D6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="267503072"/>
+        <c:axId val="329618880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="267503072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t>Number of Tasks </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329618880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="329618880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> in seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267503072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -348,25 +1152,14 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Experiment-1.1'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Task-1 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -389,492 +1182,269 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Experiment-1.1'!$B$3:$B$12</c:f>
+              <c:f>'Experiment-1'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Experiment-1'!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7931-4988-8021-FF32C18D12B7}"/>
+              <c16:uniqueId val="{00000000-2CE1-40E1-872E-C54FB2377EE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Experiment-1.1'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Task-2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="325024224"/>
+        <c:axId val="147572784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="325024224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Experiment-1.1'!$C$3:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7931-4988-8021-FF32C18D12B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+        </c:majorGridlines>
+        <c:title>
           <c:tx>
-            <c:strRef>
-              <c:f>'Experiment-1.1'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Task-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Number of Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Experiment-1.1'!$D$3:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7931-4988-8021-FF32C18D12B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Experiment-1.1'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Task-4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Experiment-1.1'!$E$3:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7931-4988-8021-FF32C18D12B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Experiment-1.1'!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Task-5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Experiment-1.1'!$F$3:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7931-4988-8021-FF32C18D12B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Experiment-1.1'!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Experiment-1.1'!$G$3:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7931-4988-8021-FF32C18D12B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="272976400"/>
-        <c:axId val="2143723936"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="272976400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -883,8 +1453,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -911,15 +1481,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143723936"/>
+        <c:crossAx val="147572784"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="2143723936"/>
+        <c:axId val="147572784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,14 +1507,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -970,9 +1599,580 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272976400"/>
+        <c:crossAx val="325024224"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Experiment-2'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Global Runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Experiment-2'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Experiment-2'!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9739-4D40-BE32-2894361E09CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="144685104"/>
+        <c:axId val="2135819792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="144685104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> of Tasks</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135819792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2135819792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> in Seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144685104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1014,14 +2214,573 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Experiment-2'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Local Runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Experiment-2'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Experiment-2'!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89D9-43DC-8D04-C68ADF4249EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="144667904"/>
+        <c:axId val="2135825200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="144667904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> of Tasks</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135825200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2135825200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> in Seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144667904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1097,8 +2856,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1125,8 +3004,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1227,7 +3106,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1259,10 +3138,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1302,22 +3181,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1422,8 +3302,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1555,19 +3435,536 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1581,6 +3978,1049 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1604,23 +5044,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A103AF78-7D85-454B-BE4C-19D512B17385}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23255D1A-CBB6-4843-9DE4-93C4B0E4753C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,124 +5078,283 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>567914</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>339314</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>34514</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DFDE385-DF06-4146-ADAB-2A2C73B108BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>391757</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{977919E7-19EC-4967-B92E-0F66C13BBB1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A807FD4-3895-4A0B-9B8E-C41B252735F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80BBC1B8-17EE-4D28-9545-570A1FCE47BF}" name="Table1" displayName="Table1" ref="B2:G12" totalsRowShown="0">
-  <autoFilter ref="B2:G12" xr:uid="{A0280F2C-FC55-4B78-8951-D505A29DD271}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4E7EDA1B-5F57-44D8-A7EE-60406A3AAEA4}" name="Table7" displayName="Table7" ref="B2:G5" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+  <autoFilter ref="B2:G5" xr:uid="{FDAB6A4C-9789-4A5E-984B-368DAC7C5F10}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D071EA1A-2A37-4D1B-B523-500E9DA7B2D6}" name="Task-1 "/>
-    <tableColumn id="2" xr3:uid="{4017A4D6-CB72-4C25-9F62-E57218AE7D7A}" name="Task-2"/>
-    <tableColumn id="3" xr3:uid="{AC260C44-DD7F-46A6-A661-34DE13F96AFC}" name="Task-3"/>
-    <tableColumn id="4" xr3:uid="{3C0685E8-0174-4956-B0D1-74781C0B816B}" name="Task-4"/>
-    <tableColumn id="5" xr3:uid="{6CD93627-D836-4427-81FC-CEF7DE65225C}" name="Task-5"/>
-    <tableColumn id="6" xr3:uid="{C587927A-CBA4-41A8-9F7A-4E6EB5EB25EE}" name="Total Time"/>
+    <tableColumn id="3" xr3:uid="{294CE7D5-91BB-4663-B686-D5F7AC8412AF}" name="Number of Tasks " dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{CBEFAC17-6F56-4974-AE2A-1423C6DD3094}" name="Number of Robots" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{F4F96AD6-A611-4F57-AB47-B0ACBBCED0D3}" name="Mean Global Runtime" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{A528153F-1FC8-458E-86C0-B8D0DD2A39D4}" name="Mean Local Runtime" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{2C661245-8DA3-4068-B237-0E788F4CF66B}" name="Ratio of Global Time Increase" dataDxfId="52">
+      <calculatedColumnFormula>QUOTIENT(Table7[[#This Row],[Mean Global Runtime]],D2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{21DA3FC8-941B-4731-BAEA-57F008FFE434}" name="Ratio of Local Time Increase" dataDxfId="49">
+      <calculatedColumnFormula>QUOTIENT(Table7[[#This Row],[Mean Local Runtime]],E2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{207AE447-54C3-426B-97EA-614574EE39F6}" name="Table2" displayName="Table2" ref="B2:L12" totalsRowShown="0">
-  <autoFilter ref="B2:L12" xr:uid="{299633F3-9759-4DFC-A21B-E3E7202CF49D}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{4E1C204B-CF9A-4FCF-9956-898CFB48DFDE}" name="Task-1" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{E0AF6DC6-EABB-4D09-8546-E706BCC99D9D}" name="Task-2" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{70E05666-ABDE-4C46-A101-EEB9AF39B74B}" name="Task-3" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{B307AF3F-679B-4E89-893E-F2340DC21291}" name="Task-4" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{FB9A6D65-DC18-4C30-B71F-43D2ED257452}" name="Task-5" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{BE9CC84F-41AF-4392-A8C1-EB7D0BE810FF}" name="Task-6" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{68EECA8B-D39F-4DBE-9FD8-B3FE610D4A09}" name="Task-7" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{0708117F-E482-4A3E-B7EC-108371D227D7}" name="Task-8" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{971B460B-BFEA-4583-A24D-F39B88648DEB}" name="Task-9" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{80938248-B403-4C58-A65C-107FF19DC627}" name="Task-10" dataDxfId="37"/>
-    <tableColumn id="16" xr3:uid="{6958C245-EDE2-4A51-A1DB-5A5B36B170A1}" name="Total-time" dataDxfId="36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80BBC1B8-17EE-4D28-9545-570A1FCE47BF}" name="Table1" displayName="Table1" ref="B2:H13" totalsRowShown="0" headerRowDxfId="80" dataDxfId="72">
+  <autoFilter ref="B2:H13" xr:uid="{A0280F2C-FC55-4B78-8951-D505A29DD271}"/>
+  <tableColumns count="7">
+    <tableColumn id="7" xr3:uid="{BA5A03B2-8E40-4B2B-B501-1AF85A110FD5}" name="Run" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{D071EA1A-2A37-4D1B-B523-500E9DA7B2D6}" name="Task-1" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{4017A4D6-CB72-4C25-9F62-E57218AE7D7A}" name="Task-2" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{AC260C44-DD7F-46A6-A661-34DE13F96AFC}" name="Task-3" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{3C0685E8-0174-4956-B0D1-74781C0B816B}" name="Task-4" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{6CD93627-D836-4427-81FC-CEF7DE65225C}" name="Task-5" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{C587927A-CBA4-41A8-9F7A-4E6EB5EB25EE}" name="Total Time" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{628B9F19-DD09-40D5-97FB-B999C6EC5E89}" name="Table26" displayName="Table26" ref="B2:Q12" totalsRowShown="0" dataDxfId="19">
-  <autoFilter ref="B2:Q12" xr:uid="{0E89B7DE-64C9-414E-8A0C-9F393A32812B}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{49D74BF2-EA4B-4484-BEF7-0C8B3771DEB8}" name="Task-1" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{857E62DB-2191-4BA2-A363-779D2B5813FB}" name="Task-2" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{DE0DFB78-41A1-455C-85E5-2A9CB5CF41A3}" name="Task-3" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{355B8AF2-BFBB-4778-A64E-DA7E8C1F18B3}" name="Task-4" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{1F7DFD0C-36CE-4E89-8FD1-99D7EFAF7C4A}" name="Task-5" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{AF1E8DAD-C46E-44FA-98E9-9CB92A241981}" name="Task-6" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{0A2B0D47-23EC-44E3-AA9E-7603FEAD5C10}" name="Task-7" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{773DD5CF-A69C-4BA8-A54D-527EA97026D1}" name="Task-8" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{416BCCB6-F981-460F-B682-E82A5AD1799B}" name="Task-9" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{FDB58791-CED8-4DA4-9E4F-6A549065BEFE}" name="Task-10" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{B2FF2E68-678F-4D87-B791-9806C6B3E094}" name="Task-11" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{0879A415-1918-432A-9E2A-79E3F193AE8C}" name="Task-12" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{1679A36E-3AAF-4AB3-ADA2-B57D37E76D03}" name="Task-13" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{599892F7-5CB3-410A-B2E7-6CBB5B84009E}" name="Task-14" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{2A21BFDD-D468-4B78-BF8B-E939B7D04F27}" name="Task-15" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{FC737061-2B25-4088-87F2-4583EDED2FB4}" name="Total-Time" dataDxfId="20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{207AE447-54C3-426B-97EA-614574EE39F6}" name="Table2" displayName="Table2" ref="B2:M13" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+  <autoFilter ref="B2:M13" xr:uid="{299633F3-9759-4DFC-A21B-E3E7202CF49D}"/>
+  <tableColumns count="12">
+    <tableColumn id="17" xr3:uid="{4C874C0B-6664-4AB1-AE39-595BCD14D905}" name="Run" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{4E1C204B-CF9A-4FCF-9956-898CFB48DFDE}" name="Task-1" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{E0AF6DC6-EABB-4D09-8546-E706BCC99D9D}" name="Task-2" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{70E05666-ABDE-4C46-A101-EEB9AF39B74B}" name="Task-3" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{B307AF3F-679B-4E89-893E-F2340DC21291}" name="Task-4" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{FB9A6D65-DC18-4C30-B71F-43D2ED257452}" name="Task-5" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{BE9CC84F-41AF-4392-A8C1-EB7D0BE810FF}" name="Task-6" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{68EECA8B-D39F-4DBE-9FD8-B3FE610D4A09}" name="Task-7" dataDxfId="64"/>
+    <tableColumn id="8" xr3:uid="{0708117F-E482-4A3E-B7EC-108371D227D7}" name="Task-8" dataDxfId="63"/>
+    <tableColumn id="9" xr3:uid="{971B460B-BFEA-4583-A24D-F39B88648DEB}" name="Task-9" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{80938248-B403-4C58-A65C-107FF19DC627}" name="Task-10" dataDxfId="61"/>
+    <tableColumn id="16" xr3:uid="{6958C245-EDE2-4A51-A1DB-5A5B36B170A1}" name="Total-time" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F2710F66-FE97-4590-BA7F-A093C9D57246}" name="Table27" displayName="Table27" ref="B2:G12" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="B2:G12" xr:uid="{EFCD82E7-DAFD-4321-9AA9-283F00F260CF}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BB260070-4F6E-4BFD-B0F8-57DB91FC5CB8}" name="Task-1" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{3E95F07C-9C74-456D-B7BA-F2A4529394F2}" name="Task-2" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{6F52E800-2CA7-4B2F-9F98-58254D263CDB}" name="Task-3" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{0263F554-AA1E-4E1D-BED7-96730DDAA856}" name="Task-4" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{013A5834-EC04-47F6-99EC-C27AE3B13ADD}" name="Task-5" dataDxfId="14"/>
-    <tableColumn id="16" xr3:uid="{6833144D-1CCF-4370-B463-6F1466C85E21}" name="Total-Time" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{628B9F19-DD09-40D5-97FB-B999C6EC5E89}" name="Table26" displayName="Table26" ref="B2:R13" totalsRowShown="0" dataDxfId="81">
+  <autoFilter ref="B2:R13" xr:uid="{0E89B7DE-64C9-414E-8A0C-9F393A32812B}"/>
+  <tableColumns count="17">
+    <tableColumn id="17" xr3:uid="{2B02014B-A09D-43D8-995A-BC2F01ABE424}" name="Run" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{49D74BF2-EA4B-4484-BEF7-0C8B3771DEB8}" name="Task-1" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{857E62DB-2191-4BA2-A363-779D2B5813FB}" name="Task-2" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{DE0DFB78-41A1-455C-85E5-2A9CB5CF41A3}" name="Task-3" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{355B8AF2-BFBB-4778-A64E-DA7E8C1F18B3}" name="Task-4" dataDxfId="94"/>
+    <tableColumn id="5" xr3:uid="{1F7DFD0C-36CE-4E89-8FD1-99D7EFAF7C4A}" name="Task-5" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{AF1E8DAD-C46E-44FA-98E9-9CB92A241981}" name="Task-6" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{0A2B0D47-23EC-44E3-AA9E-7603FEAD5C10}" name="Task-7" dataDxfId="91"/>
+    <tableColumn id="8" xr3:uid="{773DD5CF-A69C-4BA8-A54D-527EA97026D1}" name="Task-8" dataDxfId="90"/>
+    <tableColumn id="9" xr3:uid="{416BCCB6-F981-460F-B682-E82A5AD1799B}" name="Task-9" dataDxfId="89"/>
+    <tableColumn id="10" xr3:uid="{FDB58791-CED8-4DA4-9E4F-6A549065BEFE}" name="Task-10" dataDxfId="88"/>
+    <tableColumn id="11" xr3:uid="{B2FF2E68-678F-4D87-B791-9806C6B3E094}" name="Task-11" dataDxfId="87"/>
+    <tableColumn id="12" xr3:uid="{0879A415-1918-432A-9E2A-79E3F193AE8C}" name="Task-12" dataDxfId="86"/>
+    <tableColumn id="13" xr3:uid="{1679A36E-3AAF-4AB3-ADA2-B57D37E76D03}" name="Task-13" dataDxfId="85"/>
+    <tableColumn id="14" xr3:uid="{599892F7-5CB3-410A-B2E7-6CBB5B84009E}" name="Task-14" dataDxfId="84"/>
+    <tableColumn id="15" xr3:uid="{2A21BFDD-D468-4B78-BF8B-E939B7D04F27}" name="Task-15" dataDxfId="83"/>
+    <tableColumn id="16" xr3:uid="{FC737061-2B25-4088-87F2-4583EDED2FB4}" name="Total-Time" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FCBDE88-7DE6-4454-AFB5-4A014E98DED8}" name="Table24" displayName="Table24" ref="B2:L12" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="B2:L12" xr:uid="{FFADE931-33B8-44F2-8601-C1018AA3B55B}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{AA355A33-D6E4-4645-AA11-4EE95C6512EA}" name="Task-1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{BF567C49-F559-4E3C-A5D8-091A2D9B1821}" name="Task-2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{1CD14F8A-BA25-4FA1-A01A-8CFF2248567D}" name="Task-3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{99A7EE9E-DE19-4712-AF2F-6E7D7F962134}" name="Task-4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{54740996-1488-4847-8A71-226B99786F2A}" name="Task-5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F7C18FF7-1FDE-4223-B773-7A518957A339}" name="Task-6" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{6A98458D-AA6D-43FA-9819-599A299BD238}" name="Task-7" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{98F146AF-30EA-4FBF-A817-DD77F658DD0D}" name="Task-8" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{1CFDAE98-A152-44B0-B5B0-22DD9BBDE666}" name="Task-9" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{8BB2A298-CD63-4363-991E-987439DE7F8A}" name="Task-10" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{23E9FC56-B9BE-4AAD-9948-1B6DB52A153E}" name="Total-Time" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EFA0AB85-E77C-4882-9BC2-1C297ADD28B0}" name="Table713" displayName="Table713" ref="B2:G5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B2:G5" xr:uid="{119DEB40-16C6-4E40-A3BC-848DB70A6F23}"/>
+  <tableColumns count="6">
+    <tableColumn id="3" xr3:uid="{BEE034F0-DFD8-4334-992E-ED682F875C53}" name="Number of Tasks " dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{A714EAFE-D0C5-4A6E-AB3E-4D4F0543D6FB}" name="Number of Robots" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{AB0AB4C4-0C70-424E-B639-700AA51539AF}" name="Mean Global Runtime" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D1249E9B-F505-4D65-AB43-892B707C0ACF}" name="Mean Local Runtime" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F6D06E97-16F5-4797-93FE-E95F93F3AB95}" name="Ratio of Global Time Increase" dataDxfId="1">
+      <calculatedColumnFormula>QUOTIENT(Table713[[#This Row],[Mean Global Runtime]],D2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{6A540AB9-3773-4415-8424-EC1E9A4D55DD}" name="Ratio of Local Time Increase" dataDxfId="0">
+      <calculatedColumnFormula>QUOTIENT(Table713[[#This Row],[Mean Local Runtime]],E2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C6C2D19F-6D2D-48B4-BD66-97EFFBC5ED84}" name="Table25" displayName="Table25" ref="B2:Q12" totalsRowShown="0">
-  <autoFilter ref="B2:Q12" xr:uid="{2C80C8EE-818C-4887-BFAE-4CEB4F0A31A9}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{E723B6A7-5F30-4901-BEBB-B0BEF1D05BE9}" name="Task-1"/>
-    <tableColumn id="2" xr3:uid="{C6F4233A-4EDB-4FBE-A229-F69E6825DE8A}" name="Task-2"/>
-    <tableColumn id="3" xr3:uid="{2A6BE83D-ED7A-498F-96F5-B3D15854D9E3}" name="Task-3"/>
-    <tableColumn id="4" xr3:uid="{0E3EF683-011C-43B3-8751-0879C0E48FD6}" name="Task-4"/>
-    <tableColumn id="5" xr3:uid="{AD297C35-1CD9-42A1-9505-897ECB519C90}" name="Task-5"/>
-    <tableColumn id="6" xr3:uid="{51083B2D-1256-406A-AB79-33B214A943AF}" name="Task-6"/>
-    <tableColumn id="7" xr3:uid="{D8400644-FE6E-4AE5-B235-423E2F6D4D64}" name="Task-7"/>
-    <tableColumn id="8" xr3:uid="{89FDFEFD-C81D-49E2-88EF-708B73EA1368}" name="Task-8"/>
-    <tableColumn id="9" xr3:uid="{620F4BF5-303D-4978-9290-F8CA417405C8}" name="Task-9"/>
-    <tableColumn id="10" xr3:uid="{32644EA5-1E3B-4FA7-BFC9-AEECEB8077C2}" name="Task-10"/>
-    <tableColumn id="11" xr3:uid="{82AB0A32-A7F2-47A6-B4D3-A188C273449C}" name="Task-11"/>
-    <tableColumn id="12" xr3:uid="{29CB4422-F26C-46A0-9D1C-46E5AB158856}" name="Task-12"/>
-    <tableColumn id="13" xr3:uid="{E15C7507-43C3-4D25-8F77-12D6603E8CC6}" name="Task-13"/>
-    <tableColumn id="14" xr3:uid="{787ACA96-DE6A-4951-B914-DA3152F04696}" name="Task-14"/>
-    <tableColumn id="15" xr3:uid="{86706AFC-5365-47C4-879F-A561883DFAB8}" name="Task-15"/>
-    <tableColumn id="16" xr3:uid="{39C1638C-B72E-4864-AAC0-BEE82C8EAFC8}" name="Total-Time"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F2710F66-FE97-4590-BA7F-A093C9D57246}" name="Table27" displayName="Table27" ref="B2:H13" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="B2:H13" xr:uid="{EFCD82E7-DAFD-4321-9AA9-283F00F260CF}"/>
+  <tableColumns count="7">
+    <tableColumn id="17" xr3:uid="{A4E52DFF-152B-4CF0-97ED-BB27854851D9}" name="Run" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{BB260070-4F6E-4BFD-B0F8-57DB91FC5CB8}" name="Task-1" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{3E95F07C-9C74-456D-B7BA-F2A4529394F2}" name="Task-2" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{6F52E800-2CA7-4B2F-9F98-58254D263CDB}" name="Task-3" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{0263F554-AA1E-4E1D-BED7-96730DDAA856}" name="Task-4" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{013A5834-EC04-47F6-99EC-C27AE3B13ADD}" name="Task-5" dataDxfId="43"/>
+    <tableColumn id="16" xr3:uid="{6833144D-1CCF-4370-B463-6F1466C85E21}" name="Total-Time" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FCBDE88-7DE6-4454-AFB5-4A014E98DED8}" name="Table24" displayName="Table24" ref="B2:M13" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="B2:M13" xr:uid="{FFADE931-33B8-44F2-8601-C1018AA3B55B}"/>
+  <tableColumns count="12">
+    <tableColumn id="12" xr3:uid="{A6929AF7-1F31-4A85-8CA1-5E1D2DE99F9E}" name="Run" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{AA355A33-D6E4-4645-AA11-4EE95C6512EA}" name="Task-1" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{BF567C49-F559-4E3C-A5D8-091A2D9B1821}" name="Task-2" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{1CD14F8A-BA25-4FA1-A01A-8CFF2248567D}" name="Task-3" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{99A7EE9E-DE19-4712-AF2F-6E7D7F962134}" name="Task-4" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{54740996-1488-4847-8A71-226B99786F2A}" name="Task-5" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{F7C18FF7-1FDE-4223-B773-7A518957A339}" name="Task-6" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{6A98458D-AA6D-43FA-9819-599A299BD238}" name="Task-7" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{98F146AF-30EA-4FBF-A817-DD77F658DD0D}" name="Task-8" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{1CFDAE98-A152-44B0-B5B0-22DD9BBDE666}" name="Task-9" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{8BB2A298-CD63-4363-991E-987439DE7F8A}" name="Task-10" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{23E9FC56-B9BE-4AAD-9948-1B6DB52A153E}" name="Total-Time" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C6C2D19F-6D2D-48B4-BD66-97EFFBC5ED84}" name="Table25" displayName="Table25" ref="B2:R13" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="B2:R13" xr:uid="{2C80C8EE-818C-4887-BFAE-4CEB4F0A31A9}"/>
+  <tableColumns count="17">
+    <tableColumn id="17" xr3:uid="{22CA7322-442E-4334-AD82-72A3C3498B6B}" name="Run" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{E723B6A7-5F30-4901-BEBB-B0BEF1D05BE9}" name="Task-1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{C6F4233A-4EDB-4FBE-A229-F69E6825DE8A}" name="Task-2" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{2A6BE83D-ED7A-498F-96F5-B3D15854D9E3}" name="Task-3" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{0E3EF683-011C-43B3-8751-0879C0E48FD6}" name="Task-4" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{AD297C35-1CD9-42A1-9505-897ECB519C90}" name="Task-5" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{51083B2D-1256-406A-AB79-33B214A943AF}" name="Task-6" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{D8400644-FE6E-4AE5-B235-423E2F6D4D64}" name="Task-7" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{89FDFEFD-C81D-49E2-88EF-708B73EA1368}" name="Task-8" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{620F4BF5-303D-4978-9290-F8CA417405C8}" name="Task-9" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{32644EA5-1E3B-4FA7-BFC9-AEECEB8077C2}" name="Task-10" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{82AB0A32-A7F2-47A6-B4D3-A188C273449C}" name="Task-11" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{29CB4422-F26C-46A0-9D1C-46E5AB158856}" name="Task-12" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{E15C7507-43C3-4D25-8F77-12D6603E8CC6}" name="Task-13" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{787ACA96-DE6A-4951-B914-DA3152F04696}" name="Task-14" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{86706AFC-5365-47C4-879F-A561883DFAB8}" name="Task-15" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{39C1638C-B72E-4864-AAC0-BEE82C8EAFC8}" name="Total-Time" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2023,269 +5622,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02D92B7-33E2-407A-8ECD-0D2529D6D57E}">
+  <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="10.44140625" customWidth="1"/>
+    <col min="2" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8">
+        <v>7.03</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="8">
+        <f>QUOTIENT(Table7[[#This Row],[Mean Global Runtime]],D3)</f>
+        <v>7</v>
+      </c>
+      <c r="G4" s="8">
+        <f>QUOTIENT(Table7[[#This Row],[Mean Local Runtime]],E3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8">
+        <v>23.08</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.54</v>
+      </c>
+      <c r="F5" s="8">
+        <f>QUOTIENT(Table7[[#This Row],[Mean Global Runtime]],D4)</f>
+        <v>3</v>
+      </c>
+      <c r="G5" s="8">
+        <f>QUOTIENT(Table7[[#This Row],[Mean Local Runtime]],E4)</f>
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>0.17</v>
-      </c>
-      <c r="C3">
-        <v>0.17</v>
-      </c>
-      <c r="D3">
-        <v>0.17</v>
-      </c>
-      <c r="E3">
-        <v>0.17</v>
-      </c>
-      <c r="F3">
-        <v>0.18</v>
-      </c>
-      <c r="G3">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G4">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.15</v>
-      </c>
-      <c r="F5">
-        <v>0.15</v>
-      </c>
-      <c r="G5">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.15</v>
-      </c>
-      <c r="G6">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G7">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F8">
-        <v>0.15</v>
-      </c>
-      <c r="G8">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>0.26</v>
-      </c>
-      <c r="C9">
-        <v>0.26</v>
-      </c>
-      <c r="D9">
-        <v>0.26</v>
-      </c>
-      <c r="E9">
-        <v>0.26</v>
-      </c>
-      <c r="F9">
-        <v>0.27</v>
-      </c>
-      <c r="G9">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.15</v>
-      </c>
-      <c r="G10">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G11">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>0.25</v>
-      </c>
-      <c r="C12">
-        <v>0.26</v>
-      </c>
-      <c r="D12">
-        <v>0.26</v>
-      </c>
-      <c r="E12">
-        <v>0.26</v>
-      </c>
-      <c r="F12">
-        <v>0.26</v>
-      </c>
-      <c r="G12">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1">
-        <f>AVERAGE(B3:B12)</f>
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C3:C12)</f>
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" ref="D14:G14" si="0">AVERAGE(D3:D12)</f>
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -2295,11 +5729,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="5" width="10.44140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5">
+        <f>AVERAGE(C3:C12)</f>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:H13" si="0">AVERAGE(D3:D12)</f>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <f>AVERAGE(C3:C13)</f>
+        <v>0.19400000000000003</v>
+      </c>
+      <c r="C14" s="3">
+        <f>AVERAGE(D3:D13)</f>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D13:H14" si="1">AVERAGE(E3:E12)</f>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3">
+        <f>AVERAGE(B14:F14)</f>
+        <v>0.19720000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2485372-3C98-4D15-A252-C8F948EC6ECD}">
-  <dimension ref="A2:L14"/>
+  <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="M13" sqref="B2:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2308,452 +6097,494 @@
     <col min="11" max="11" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
         <v>0.7</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="10">
         <v>0.7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="10">
         <v>0.7</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="10">
         <v>0.7</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="10">
         <v>0.7</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="10">
         <v>0.71</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="10">
         <v>0.71</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="10">
         <v>0.71</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="10">
         <v>0.71</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="10">
         <v>0.71</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="10">
         <v>7.04</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10">
         <v>0.59</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="10">
         <v>0.6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="10">
         <v>0.6</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="10">
         <v>0.6</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="10">
         <v>0.6</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="10">
         <v>0.6</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="10">
         <v>0.6</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="10">
         <v>0.6</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="10">
         <v>0.6</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="10">
         <v>0.61</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="10">
         <v>5.99</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10">
         <v>0.66</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="10">
         <v>0.66</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="10">
         <v>0.66</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="10">
         <v>0.66</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="10">
         <v>0.66</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="10">
         <v>0.67</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="10">
         <v>0.67</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="10">
         <v>0.67</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="10">
         <v>0.67</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="10">
         <v>0.67</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="10">
         <v>6.64</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
         <v>0.65</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="10">
         <v>0.66</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="10">
         <v>0.66</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="10">
         <v>0.66</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="10">
         <v>0.66</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="10">
         <v>0.66</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="10">
         <v>0.66</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="10">
         <v>0.66</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="10">
         <v>0.66</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="10">
         <v>0.67</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="10">
         <v>6.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10">
         <v>0.76</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="10">
         <v>0.76</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="10">
         <v>0.77</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="10">
         <v>0.77</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="10">
         <v>0.77</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="10">
         <v>0.77</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="10">
         <v>0.77</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="10">
         <v>0.78</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="10">
         <v>0.78</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="10">
         <v>0.78</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="10">
         <v>7.71</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
         <v>0.62</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="10">
         <v>0.63</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="10">
         <v>0.63</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="10">
         <v>0.63</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="10">
         <v>0.63</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="10">
         <v>0.64</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="10">
         <v>0.64</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="10">
         <v>0.64</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="10">
         <v>0.64</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="10">
         <v>0.64</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="10">
         <v>6.34</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
         <v>0.62</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="10">
         <v>0.62</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="10">
         <v>0.62</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="10">
         <v>0.62</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="10">
         <v>0.63</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="10">
         <v>0.63</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="10">
         <v>0.63</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="10">
         <v>0.63</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="10">
         <v>0.63</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="10">
         <v>0.63</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="10">
         <v>6.26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
         <v>0.72</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="10">
         <v>0.72</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="10">
         <v>0.72</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="10">
         <v>0.72</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="10">
         <v>0.72</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="10">
         <v>0.73</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="10">
         <v>0.73</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="10">
         <v>0.73</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="10">
         <v>0.73</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="10">
         <v>0.73</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="10">
         <v>7.24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10">
         <v>0.62</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="10">
         <v>0.62</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="10">
         <v>0.62</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="10">
         <v>0.62</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="10">
         <v>0.63</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="10">
         <v>0.63</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="10">
         <v>0.63</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="10">
         <v>0.63</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="10">
         <v>0.63</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="10">
         <v>0.64</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="10">
         <v>6.28</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10">
         <v>1.02</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="10">
         <v>1.02</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="10">
         <v>1.02</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="10">
         <v>1.02</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="10">
         <v>1.02</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="10">
         <v>1.02</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="10">
         <v>1.02</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="10">
         <v>1.03</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="10">
         <v>1.03</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="10">
         <v>1.03</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="10">
         <v>10.210000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1">
-        <f>AVERAGE(B3:B12)</f>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10">
+        <f>AVERAGE(C3:C12)</f>
         <v>0.69600000000000006</v>
       </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C3:C12)</f>
+      <c r="D13" s="10">
+        <f t="shared" ref="D13:M13" si="0">AVERAGE(D3:D12)</f>
         <v>0.69900000000000007</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" ref="D14:L14" si="0">AVERAGE(D3:D12)</f>
-        <v>0.7</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
         <v>0.70199999999999996</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
         <v>0.70600000000000007</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I13" s="10">
         <f t="shared" si="0"/>
         <v>0.70600000000000007</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J13" s="10">
         <f t="shared" si="0"/>
         <v>0.70799999999999996</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K13" s="10">
         <f t="shared" si="0"/>
         <v>0.70799999999999996</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L13" s="10">
         <f t="shared" si="0"/>
         <v>0.71099999999999997</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M13" s="10">
         <f t="shared" si="0"/>
         <v>7.0310000000000006</v>
       </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <f>AVERAGE(C13:L13)</f>
+        <v>0.70360000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2765,69 +6596,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868CBFF4-5185-4CEB-815C-AECF8A22297D}">
-  <dimension ref="A2:Q14"/>
+  <dimension ref="B2:R16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>1.64</v>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>1.64</v>
@@ -2836,7 +6670,7 @@
         <v>1.64</v>
       </c>
       <c r="E3" s="1">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="F3" s="1">
         <v>1.65</v>
@@ -2848,7 +6682,7 @@
         <v>1.65</v>
       </c>
       <c r="I3" s="1">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J3" s="1">
         <v>1.66</v>
@@ -2863,24 +6697,27 @@
         <v>1.66</v>
       </c>
       <c r="N3" s="1">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="O3" s="1">
         <v>1.67</v>
       </c>
       <c r="P3" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="Q3" s="1">
         <v>1.68</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>24.84</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>1.4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.41</v>
       </c>
       <c r="D4" s="1">
         <v>1.41</v>
@@ -2895,7 +6732,7 @@
         <v>1.41</v>
       </c>
       <c r="H4" s="1">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="I4" s="1">
         <v>1.42</v>
@@ -2910,27 +6747,30 @@
         <v>1.42</v>
       </c>
       <c r="M4" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="N4" s="1">
         <v>1.44</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>1.47</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>1.54</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>1.56</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>21.54</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
         <v>1.46</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.47</v>
       </c>
       <c r="D5" s="1">
         <v>1.47</v>
@@ -2945,7 +6785,7 @@
         <v>1.47</v>
       </c>
       <c r="H5" s="1">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="I5" s="1">
         <v>1.48</v>
@@ -2957,13 +6797,13 @@
         <v>1.48</v>
       </c>
       <c r="L5" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="M5" s="1">
         <v>1.49</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>1.48</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1.49</v>
       </c>
       <c r="O5" s="1">
         <v>1.49</v>
@@ -2972,12 +6812,15 @@
         <v>1.49</v>
       </c>
       <c r="Q5" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="R5" s="1">
         <v>22.17</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>1.56</v>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>1.56</v>
@@ -2986,7 +6829,7 @@
         <v>1.56</v>
       </c>
       <c r="E6" s="1">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="F6" s="1">
         <v>1.57</v>
@@ -3004,7 +6847,7 @@
         <v>1.57</v>
       </c>
       <c r="K6" s="1">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="L6" s="1">
         <v>1.58</v>
@@ -3019,21 +6862,24 @@
         <v>1.58</v>
       </c>
       <c r="P6" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="Q6" s="1">
         <v>1.59</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>23.6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>1.79</v>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>1.79</v>
       </c>
       <c r="D7" s="1">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="E7" s="1">
         <v>1.8</v>
@@ -3042,7 +6888,7 @@
         <v>1.8</v>
       </c>
       <c r="G7" s="1">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H7" s="1">
         <v>1.81</v>
@@ -3057,7 +6903,7 @@
         <v>1.81</v>
       </c>
       <c r="L7" s="1">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="M7" s="1">
         <v>1.82</v>
@@ -3072,18 +6918,21 @@
         <v>1.82</v>
       </c>
       <c r="Q7" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="R7" s="1">
         <v>27.12</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>1.58</v>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>1.58</v>
       </c>
       <c r="D8" s="1">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="E8" s="1">
         <v>1.59</v>
@@ -3101,7 +6950,7 @@
         <v>1.59</v>
       </c>
       <c r="J8" s="1">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="K8" s="1">
         <v>1.6</v>
@@ -3122,12 +6971,15 @@
         <v>1.6</v>
       </c>
       <c r="Q8" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="R8" s="1">
         <v>23.9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>1.24</v>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>1.24</v>
@@ -3136,13 +6988,13 @@
         <v>1.24</v>
       </c>
       <c r="E9" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="F9" s="1">
         <v>1.28</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>1.36</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1.38</v>
       </c>
       <c r="H9" s="1">
         <v>1.38</v>
@@ -3157,7 +7009,7 @@
         <v>1.38</v>
       </c>
       <c r="L9" s="1">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M9" s="1">
         <v>1.39</v>
@@ -3166,21 +7018,24 @@
         <v>1.39</v>
       </c>
       <c r="O9" s="1">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P9" s="1">
         <v>1.4</v>
       </c>
       <c r="Q9" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="R9" s="1">
         <v>20.23</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
         <v>1.43</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.44</v>
       </c>
       <c r="D10" s="1">
         <v>1.44</v>
@@ -3195,7 +7050,7 @@
         <v>1.44</v>
       </c>
       <c r="H10" s="1">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I10" s="1">
         <v>1.45</v>
@@ -3216,18 +7071,21 @@
         <v>1.45</v>
       </c>
       <c r="O10" s="1">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P10" s="1">
         <v>1.46</v>
       </c>
       <c r="Q10" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="R10" s="1">
         <v>21.69</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>1.44</v>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>1.44</v>
@@ -3236,7 +7094,7 @@
         <v>1.44</v>
       </c>
       <c r="E11" s="1">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="F11" s="1">
         <v>1.45</v>
@@ -3248,7 +7106,7 @@
         <v>1.45</v>
       </c>
       <c r="I11" s="1">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J11" s="1">
         <v>1.46</v>
@@ -3266,18 +7124,21 @@
         <v>1.46</v>
       </c>
       <c r="O11" s="1">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P11" s="1">
         <v>1.47</v>
       </c>
       <c r="Q11" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="R11" s="1">
         <v>21.82</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>1.58</v>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <v>1.58</v>
@@ -3289,7 +7150,7 @@
         <v>1.58</v>
       </c>
       <c r="F12" s="1">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G12" s="1">
         <v>1.59</v>
@@ -3301,7 +7162,7 @@
         <v>1.59</v>
       </c>
       <c r="J12" s="1">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="K12" s="1">
         <v>1.6</v>
@@ -3322,381 +7183,103 @@
         <v>1.6</v>
       </c>
       <c r="Q12" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="R12" s="1">
         <v>23.88</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1">
-        <f>AVERAGE(B3:B12)</f>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C3:C12)</f>
         <v>1.512</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" ref="C14:Q14" si="0">AVERAGE(C3:C12)</f>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:R13" si="0">AVERAGE(D3:D12)</f>
         <v>1.5149999999999999</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>1.5169999999999999</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>1.5239999999999998</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>1.5329999999999999</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>1.5359999999999998</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I13" s="1">
         <f t="shared" si="0"/>
         <v>1.5389999999999997</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J13" s="1">
         <f t="shared" si="0"/>
         <v>1.5409999999999999</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="0"/>
         <v>1.5430000000000001</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L13" s="1">
         <f t="shared" si="0"/>
         <v>1.544</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M13" s="1">
         <f t="shared" si="0"/>
         <v>1.5470000000000002</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N13" s="1">
         <f t="shared" si="0"/>
         <v>1.5479999999999998</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O13" s="1">
         <f t="shared" si="0"/>
         <v>1.5529999999999999</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P13" s="1">
         <f t="shared" si="0"/>
         <v>1.5629999999999999</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q13" s="1">
         <f t="shared" si="0"/>
         <v>1.5670000000000002</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R13" s="1">
         <f t="shared" si="0"/>
         <v>23.079000000000001</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6327F35-9837-49E8-80D3-424A88B54D81}">
-  <dimension ref="A2:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1">
-        <f>AVERAGE(B3:B12)</f>
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" ref="C14:G14" si="0">AVERAGE(C3:C12)</f>
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20099999999999998</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20299999999999999</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20400000000000001</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.004</v>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <f>AVERAGE(C13:Q13)</f>
+        <v>1.5387999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3709,471 +7292,424 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABE105A-55E6-4C49-9904-0C8E0806AF2F}">
-  <dimension ref="A2:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357ADF4D-44F0-4AEA-95D1-B345967B262C}">
+  <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8">
+        <v>6.95</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="F4" s="8">
+        <f>QUOTIENT(Table713[[#This Row],[Mean Global Runtime]],D3)</f>
+        <v>6</v>
+      </c>
+      <c r="G4" s="8">
+        <f>QUOTIENT(Table713[[#This Row],[Mean Local Runtime]],E3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8">
+        <v>20.45</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.36</v>
+      </c>
+      <c r="F5" s="8">
+        <f>QUOTIENT(Table713[[#This Row],[Mean Global Runtime]],D4)</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
+        <f>QUOTIENT(Table713[[#This Row],[Mean Local Runtime]],E4)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6327F35-9837-49E8-80D3-424A88B54D81}">
+  <dimension ref="A2:H15"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C7" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C10" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C11" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="L3" s="1">
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="L4" s="1">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="L5" s="1">
-        <v>7.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="L6" s="1">
-        <v>6.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="L7" s="1">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="L8" s="1">
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="L9" s="1">
-        <v>8.31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="L10" s="1">
-        <v>8.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="L11" s="1">
-        <v>6.36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="L12" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1">
-        <f>AVERAGE(B3:B12)</f>
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" ref="C14:L14" si="0">AVERAGE(C3:C12)</f>
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5">
+        <f>AVERAGE(C3:C12)</f>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:H13" si="0">AVERAGE(D3:D12)</f>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="E14" s="1">
+        <v>0.20099999999999998</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="F14" s="1">
+        <v>0.20299999999999999</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>0.69299999999999984</v>
-      </c>
-      <c r="G14" s="1">
+        <v>0.20400000000000001</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
-        <v>0.69499999999999984</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.70100000000000007</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.70200000000000007</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.70300000000000007</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>6.9470000000000001</v>
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <f>AVERAGE(C13:G13)</f>
+        <v>0.20059999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -4185,564 +7721,1207 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89EA9B7-9A6C-4124-B111-7AF40EE6F681}">
-  <dimension ref="B2:Q12"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABE105A-55E6-4C49-9904-0C8E0806AF2F}">
+  <dimension ref="A2:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="M3" s="5">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="M4" s="5">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="M5" s="5">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M6" s="5">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="M7" s="5">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="M8" s="5">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="M9" s="5">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="M10" s="5">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="M11" s="5">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="M12" s="5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5">
+        <f>AVERAGE(C3:C12)</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:M13" si="0">AVERAGE(D3:D12)</f>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.69299999999999984</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.69499999999999984</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70100000000000007</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70200000000000007</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70300000000000007</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9470000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <f>AVERAGE(C13:L13)</f>
+        <v>0.69490000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89EA9B7-9A6C-4124-B111-7AF40EE6F681}">
+  <dimension ref="B2:R15"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="5">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="5">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H3">
+      <c r="I3" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I3">
+      <c r="J3" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J3">
+      <c r="K3" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K3">
+      <c r="L3" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L3">
+      <c r="M3" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="M3">
+      <c r="N3" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="N3">
+      <c r="O3" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="O3">
+      <c r="P3" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P3">
+      <c r="Q3" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="Q3">
+      <c r="R3" s="5">
         <v>16.86</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
         <v>1.22</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="5">
         <v>1.22</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="5">
         <v>1.23</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="5">
         <v>1.23</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="5">
         <v>1.23</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="5">
         <v>1.23</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="5">
         <v>1.23</v>
       </c>
-      <c r="I4">
+      <c r="J4" s="5">
         <v>1.23</v>
       </c>
-      <c r="J4">
+      <c r="K4" s="5">
         <v>1.24</v>
       </c>
-      <c r="K4">
+      <c r="L4" s="5">
         <v>1.24</v>
       </c>
-      <c r="L4">
+      <c r="M4" s="5">
         <v>1.24</v>
       </c>
-      <c r="M4">
+      <c r="N4" s="5">
         <v>1.24</v>
       </c>
-      <c r="N4">
+      <c r="O4" s="5">
         <v>1.25</v>
       </c>
-      <c r="O4">
+      <c r="P4" s="5">
         <v>1.25</v>
       </c>
-      <c r="P4">
+      <c r="Q4" s="5">
         <v>1.25</v>
       </c>
-      <c r="Q4">
+      <c r="R4" s="5">
         <v>18.52</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
         <v>1.32</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="5">
         <v>1.32</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="5">
         <v>1.32</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="5">
         <v>1.33</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="5">
         <v>1.33</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="5">
         <v>1.33</v>
       </c>
-      <c r="H5">
+      <c r="I5" s="5">
         <v>1.34</v>
       </c>
-      <c r="I5">
+      <c r="J5" s="5">
         <v>1.34</v>
       </c>
-      <c r="J5">
+      <c r="K5" s="5">
         <v>1.34</v>
       </c>
-      <c r="K5">
+      <c r="L5" s="5">
         <v>1.34</v>
       </c>
-      <c r="L5">
+      <c r="M5" s="5">
         <v>1.35</v>
       </c>
-      <c r="M5">
+      <c r="N5" s="5">
         <v>1.35</v>
       </c>
-      <c r="N5">
+      <c r="O5" s="5">
         <v>1.35</v>
       </c>
-      <c r="O5">
+      <c r="P5" s="5">
         <v>1.35</v>
       </c>
-      <c r="P5">
+      <c r="Q5" s="5">
         <v>1.36</v>
       </c>
-      <c r="Q5">
+      <c r="R5" s="5">
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
         <v>1.3</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="5">
         <v>1.3</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="5">
         <v>1.31</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="5">
         <v>1.31</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="5">
         <v>1.31</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="5">
         <v>1.31</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="5">
         <v>1.31</v>
       </c>
-      <c r="I6">
+      <c r="J6" s="5">
         <v>1.32</v>
       </c>
-      <c r="J6">
+      <c r="K6" s="5">
         <v>1.32</v>
       </c>
-      <c r="K6">
+      <c r="L6" s="5">
         <v>1.32</v>
       </c>
-      <c r="L6">
+      <c r="M6" s="5">
         <v>1.32</v>
       </c>
-      <c r="M6">
+      <c r="N6" s="5">
         <v>1.32</v>
       </c>
-      <c r="N6">
+      <c r="O6" s="5">
         <v>1.32</v>
       </c>
-      <c r="O6">
+      <c r="P6" s="5">
         <v>1.33</v>
       </c>
-      <c r="P6">
+      <c r="Q6" s="5">
         <v>1.33</v>
       </c>
-      <c r="Q6">
+      <c r="R6" s="5">
         <v>19.73</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
         <v>1.48</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="5">
         <v>1.48</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="5">
         <v>1.48</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="5">
         <v>1.49</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="5">
         <v>1.49</v>
       </c>
-      <c r="G7">
+      <c r="H7" s="5">
         <v>1.49</v>
       </c>
-      <c r="H7">
+      <c r="I7" s="5">
         <v>1.49</v>
       </c>
-      <c r="I7">
+      <c r="J7" s="5">
         <v>1.5</v>
       </c>
-      <c r="J7">
+      <c r="K7" s="5">
         <v>1.5</v>
       </c>
-      <c r="K7">
+      <c r="L7" s="5">
         <v>1.5</v>
       </c>
-      <c r="L7">
+      <c r="M7" s="5">
         <v>1.5</v>
       </c>
-      <c r="M7">
+      <c r="N7" s="5">
         <v>1.5</v>
       </c>
-      <c r="N7">
+      <c r="O7" s="5">
         <v>1.5</v>
       </c>
-      <c r="O7">
+      <c r="P7" s="5">
         <v>1.51</v>
       </c>
-      <c r="P7">
+      <c r="Q7" s="5">
         <v>1.51</v>
       </c>
-      <c r="Q7">
+      <c r="R7" s="5">
         <v>22.42</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
         <v>1.18</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="5">
         <v>1.18</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="5">
         <v>1.19</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="5">
         <v>1.19</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="5">
         <v>1.19</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="5">
         <v>1.19</v>
       </c>
-      <c r="H8">
+      <c r="I8" s="5">
         <v>1.2</v>
       </c>
-      <c r="I8">
+      <c r="J8" s="5">
         <v>1.2</v>
       </c>
-      <c r="J8">
+      <c r="K8" s="5">
         <v>1.2</v>
       </c>
-      <c r="K8">
+      <c r="L8" s="5">
         <v>1.2</v>
       </c>
-      <c r="L8">
+      <c r="M8" s="5">
         <v>1.21</v>
       </c>
-      <c r="M8">
+      <c r="N8" s="5">
         <v>1.21</v>
       </c>
-      <c r="N8">
+      <c r="O8" s="5">
         <v>1.21</v>
       </c>
-      <c r="O8">
+      <c r="P8" s="5">
         <v>1.21</v>
       </c>
-      <c r="P8">
+      <c r="Q8" s="5">
         <v>1.22</v>
       </c>
-      <c r="Q8">
+      <c r="R8" s="5">
         <v>17.98</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
         <v>2.19</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="5">
         <v>2.19</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="5">
         <v>2.19</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H9">
+      <c r="I9" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I9">
+      <c r="J9" s="5">
         <v>2.21</v>
       </c>
-      <c r="J9">
+      <c r="K9" s="5">
         <v>2.2200000000000002</v>
       </c>
-      <c r="K9">
+      <c r="L9" s="5">
         <v>2.2599999999999998</v>
       </c>
-      <c r="L9">
+      <c r="M9" s="5">
         <v>2.27</v>
       </c>
-      <c r="M9">
+      <c r="N9" s="5">
         <v>2.27</v>
       </c>
-      <c r="N9">
+      <c r="O9" s="5">
         <v>2.27</v>
       </c>
-      <c r="O9">
+      <c r="P9" s="5">
         <v>2.2799999999999998</v>
       </c>
-      <c r="P9">
+      <c r="Q9" s="5">
         <v>2.2799999999999998</v>
       </c>
-      <c r="Q9">
+      <c r="R9" s="5">
         <v>33.43</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
         <v>1.38</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="5">
         <v>1.38</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="5">
         <v>1.38</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="5">
         <v>1.39</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="5">
         <v>1.39</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="5">
         <v>1.39</v>
       </c>
-      <c r="H10">
+      <c r="I10" s="5">
         <v>1.39</v>
       </c>
-      <c r="I10">
+      <c r="J10" s="5">
         <v>1.4</v>
       </c>
-      <c r="J10">
+      <c r="K10" s="5">
         <v>1.4</v>
       </c>
-      <c r="K10">
+      <c r="L10" s="5">
         <v>1.4</v>
       </c>
-      <c r="L10">
+      <c r="M10" s="5">
         <v>1.4</v>
       </c>
-      <c r="M10">
+      <c r="N10" s="5">
         <v>1.4</v>
       </c>
-      <c r="N10">
+      <c r="O10" s="5">
         <v>1.4</v>
       </c>
-      <c r="O10">
+      <c r="P10" s="5">
         <v>1.41</v>
       </c>
-      <c r="P10">
+      <c r="Q10" s="5">
         <v>1.41</v>
       </c>
-      <c r="Q10">
+      <c r="R10" s="5">
         <v>20.91</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="G11">
+      <c r="H11" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H11">
+      <c r="I11" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="I11">
+      <c r="J11" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J11">
+      <c r="K11" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="K11">
+      <c r="L11" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L11">
+      <c r="M11" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="M11">
+      <c r="N11" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="N11">
+      <c r="O11" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="O11">
+      <c r="P11" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="P11">
+      <c r="Q11" s="5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="Q11">
+      <c r="R11" s="5">
         <v>16.989999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
         <v>1.1599999999999999</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="5">
         <v>1.1599999999999999</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="5">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="5">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="5">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="5">
         <v>1.17</v>
       </c>
-      <c r="H12">
+      <c r="I12" s="5">
         <v>1.17</v>
       </c>
-      <c r="I12">
+      <c r="J12" s="5">
         <v>1.17</v>
       </c>
-      <c r="J12">
+      <c r="K12" s="5">
         <v>1.17</v>
       </c>
-      <c r="K12">
+      <c r="L12" s="5">
         <v>1.17</v>
       </c>
-      <c r="L12">
+      <c r="M12" s="5">
         <v>1.18</v>
       </c>
-      <c r="M12">
+      <c r="N12" s="5">
         <v>1.18</v>
       </c>
-      <c r="N12">
+      <c r="O12" s="5">
         <v>1.18</v>
       </c>
-      <c r="O12">
+      <c r="P12" s="5">
         <v>1.18</v>
       </c>
-      <c r="P12">
+      <c r="Q12" s="5">
         <v>1.18</v>
       </c>
-      <c r="Q12">
+      <c r="R12" s="5">
         <v>17.55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5">
+        <f>AVERAGE(C3:C12)</f>
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:R13" si="0">AVERAGE(D3:D12)</f>
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3490000000000002</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3540000000000003</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.355</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.363</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.37</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.379</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.383</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="0"/>
+        <v>20.447000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <f>AVERAGE(C13:Q13)</f>
+        <v>1.3632</v>
       </c>
     </row>
   </sheetData>
